--- a/Table/Table_xls/PVP/PVP积分奖励表.xlsx
+++ b/Table/Table_xls/PVP/PVP积分奖励表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -112,14 +112,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,7 +150,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,16 +170,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,10 +185,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,6 +216,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -216,6 +231,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -238,29 +261,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -271,31 +271,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,43 +427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,103 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,11 +465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,17 +495,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +509,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,21 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -565,148 +565,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="D2" sqref="D2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1111,10 +1111,10 @@
         <v>299</v>
       </c>
       <c r="D2">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
         <v>-30</v>
@@ -1140,10 +1140,10 @@
         <v>599</v>
       </c>
       <c r="D3">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
         <v>-60</v>
@@ -1169,10 +1169,10 @@
         <v>899</v>
       </c>
       <c r="D4">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1">
         <v>-90</v>
@@ -1198,10 +1198,10 @@
         <v>1199</v>
       </c>
       <c r="D5">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1">
         <v>-120</v>
@@ -1227,10 +1227,10 @@
         <v>1499</v>
       </c>
       <c r="D6">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1">
         <v>-150</v>
@@ -1256,10 +1256,10 @@
         <v>1799</v>
       </c>
       <c r="D7">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1">
         <v>-150</v>
@@ -1285,10 +1285,10 @@
         <v>2099</v>
       </c>
       <c r="D8">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
         <v>-150</v>
@@ -1314,10 +1314,10 @@
         <v>2399</v>
       </c>
       <c r="D9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1">
         <v>-150</v>
@@ -1343,10 +1343,10 @@
         <v>2699</v>
       </c>
       <c r="D10">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
         <v>-150</v>
@@ -1372,10 +1372,10 @@
         <v>2999</v>
       </c>
       <c r="D11">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1">
         <v>-150</v>
@@ -1401,10 +1401,10 @@
         <v>3299</v>
       </c>
       <c r="D12">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1">
         <v>-150</v>
@@ -1430,10 +1430,10 @@
         <v>3599</v>
       </c>
       <c r="D13">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1">
         <v>-150</v>
@@ -1459,10 +1459,10 @@
         <v>3899</v>
       </c>
       <c r="D14">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1">
         <v>-150</v>
@@ -1488,10 +1488,10 @@
         <v>4199</v>
       </c>
       <c r="D15">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1">
         <v>-150</v>
@@ -1517,10 +1517,10 @@
         <v>4499</v>
       </c>
       <c r="D16">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1">
         <v>-150</v>
@@ -1546,10 +1546,10 @@
         <v>4799</v>
       </c>
       <c r="D17">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1">
         <v>-150</v>
@@ -1575,10 +1575,10 @@
         <v>5099</v>
       </c>
       <c r="D18">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1">
         <v>-150</v>
